--- a/SPPSApi/Doc/Template/FS0705_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0705_Export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\董镇\补给项目\API\SPPSApi\Doc\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2922F1C-8DD1-481C-909D-621AFC864313}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F060065-20A2-4F70-9E93-898415C90811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>GPS品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,15 +35,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调整时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整类别</t>
+    <t>订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">发注逻辑 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包材品番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上时段残数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补品换算包材需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,12 +109,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,53 +137,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,73 +436,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="4" width="8.9140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.9140625" customWidth="1"/>
-    <col min="7" max="7" width="19.08203125" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="13" max="13" width="17.9140625" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.4140625" customWidth="1"/>
-    <col min="16" max="16" width="14.9140625" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="19.75" customWidth="1"/>
+    <col min="3" max="4" width="8.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.08203125" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.4140625" customWidth="1"/>
+    <col min="11" max="11" width="14.9140625" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0705_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0705_Export.xlsx
@@ -1,45 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\董镇\补给项目\API\SPPSApi\Doc\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F060065-20A2-4F70-9E93-898415C90811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796FADAD-CCB0-4043-9D6E-5D531A097318}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>GPS品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">发注逻辑 </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>A=发注收容数    B=上时段残数    C=部品换算包材需求    D=包材损耗量、货架容量调整数量    E=紧急入荷实际    F=包材订购数量(理论)    G=本时段残数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,19 +31,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包材品番</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发注收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上时段残数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补品换算包材需求</t>
+    <t>品番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSP品番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,45 +71,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -141,27 +134,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -174,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -184,44 +176,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -249,14 +241,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -284,6 +293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -295,221 +321,276 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="4" width="8.9140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" customWidth="1"/>
-    <col min="8" max="8" width="17.08203125" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="18.4140625" customWidth="1"/>
-    <col min="11" max="11" width="14.9140625" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="11" width="6.08984375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.08984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SPPSApi/Doc/Template/FS0705_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0705_Export.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796FADAD-CCB0-4043-9D6E-5D531A097318}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF7B08-CE14-4BB8-AF57-0AB5CE11FCEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,58 +12,34 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>A=发注收容数    B=上时段残数    C=部品换算包材需求    D=包材损耗量、货架容量调整数量    E=紧急入荷实际    F=包材订购数量(理论)    G=本时段残数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>发注逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算时间</t>
+    <t>包材品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品番</t>
+    <t>GPPS品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GSP品番</t>
+    <t>发注数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
+    <t>纳入便次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
+    <t>生成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,19 +62,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,11 +121,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,83 +465,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="11" width="6.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.08984375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="9.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="2" spans="1:6" ht="9.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+  <mergeCells count="6">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0705_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS0705_Export.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDF7B08-CE14-4BB8-AF57-0AB5CE11FCEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3AFA51-7FA5-4454-AA38-A681AF7B7691}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>发注逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注便次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,10 +126,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,77 +469,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.08984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="9.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="9.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
